--- a/results/2012_10_06_scan_lutsch.xlsx
+++ b/results/2012_10_06_scan_lutsch.xlsx
@@ -1313,11 +1313,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="65239232"/>
-        <c:axId val="65238656"/>
+        <c:axId val="86691776"/>
+        <c:axId val="86692352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65239232"/>
+        <c:axId val="86691776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,12 +1327,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65238656"/>
+        <c:crossAx val="86692352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65238656"/>
+        <c:axId val="86692352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65239232"/>
+        <c:crossAx val="86691776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
